--- a/src/main/resources/hhwtqs-template.xlsx
+++ b/src/main/resources/hhwtqs-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyx/my-dir/projects/MEGA-lyx数据/学校与企业/中瑞相关/事务/电催辅助程序/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyx/my-dir/projects/liqi-assit/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FADF5B-EDA2-A34B-8C3B-16651767A621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00AFAED-D032-BF46-9D92-15883ADD7C44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BD8" sqref="BD8"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
